--- a/ReservedInstanceRequests.xlsx
+++ b/ReservedInstanceRequests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/miwestaw_microsoft_com/Documents/data/2020/ReservedInstanceHelper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{0A127BF5-2CAD-479A-84E8-B23ACD4BE900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8788A7D3-EAB2-4351-ABF7-D639397F02E7}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{0A127BF5-2CAD-479A-84E8-B23ACD4BE900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B48CBD4C-6410-4BA2-A1C3-52AA3986BA67}"/>
   <bookViews>
-    <workbookView xWindow="11295" yWindow="-14865" windowWidth="24690" windowHeight="13005" xr2:uid="{A2E72911-6DE1-40A8-963A-86C89A689DC1}"/>
+    <workbookView xWindow="10830" yWindow="-14760" windowWidth="24690" windowHeight="13005" xr2:uid="{A2E72911-6DE1-40A8-963A-86C89A689DC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>AppliedBillingScopeTypes</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t>SingleScopeSubscriptionId</t>
+  </si>
+  <si>
+    <t>Purchased</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -622,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF80D39-1A4A-49D2-AF7B-35E8D11F2BF0}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -639,7 +645,7 @@
     <col min="11" max="11" width="15.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -676,8 +682,11 @@
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -714,8 +723,11 @@
       <c r="L2">
         <v>10</v>
       </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -748,6 +760,9 @@
       </c>
       <c r="L3">
         <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ReservedInstanceRequests.xlsx
+++ b/ReservedInstanceRequests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/miwestaw_microsoft_com/Documents/data/2020/ReservedInstanceHelper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/miwestaw_microsoft_com/Documents/data/myGitRepo/reservedinstancehelper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{0A127BF5-2CAD-479A-84E8-B23ACD4BE900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B48CBD4C-6410-4BA2-A1C3-52AA3986BA67}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{0A127BF5-2CAD-479A-84E8-B23ACD4BE900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ECFD87AE-A17E-49A7-A6B0-1CD088DA596F}"/>
   <bookViews>
-    <workbookView xWindow="10830" yWindow="-14760" windowWidth="24690" windowHeight="13005" xr2:uid="{A2E72911-6DE1-40A8-963A-86C89A689DC1}"/>
+    <workbookView xWindow="11430" yWindow="-14160" windowWidth="24690" windowHeight="13005" xr2:uid="{A2E72911-6DE1-40A8-963A-86C89A689DC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>AppliedBillingScopeTypes</t>
   </si>
@@ -212,12 +212,6 @@
   </si>
   <si>
     <t>AutoRenew</t>
-  </si>
-  <si>
-    <t>RI001</t>
-  </si>
-  <si>
-    <t>RI002</t>
   </si>
   <si>
     <t>Sku</t>
@@ -310,10 +304,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,12 +625,12 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="5" max="5" width="35.765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.3046875" bestFit="1" customWidth="1"/>
@@ -646,7 +640,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -659,13 +653,13 @@
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>17</v>
@@ -677,18 +671,19 @@
         <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
+      <c r="A2" s="5" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("RI-", TEXT(ROW()-1, "000"))</f>
+        <v>RI-001</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -700,13 +695,13 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -718,18 +713,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L2">
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>29</v>
+      <c r="A3" s="5" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("RI-", TEXT(ROW()-1, "000"))</f>
+        <v>RI-002</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -741,7 +737,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -756,13 +752,13 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L3">
         <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -820,116 +816,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="4" t="b">
+      <c r="H2" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="4" t="b">
+      <c r="H3" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
